--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H2">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N2">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O2">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P2">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q2">
-        <v>94.0192262696541</v>
+        <v>106.1557581239098</v>
       </c>
       <c r="R2">
-        <v>94.0192262696541</v>
+        <v>955.4018231151879</v>
       </c>
       <c r="S2">
-        <v>0.201676827355352</v>
+        <v>0.1999282354935506</v>
       </c>
       <c r="T2">
-        <v>0.201676827355352</v>
+        <v>0.1999282354935506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H3">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N3">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O3">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P3">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q3">
-        <v>167.6835635586834</v>
+        <v>184.8300411173348</v>
       </c>
       <c r="R3">
-        <v>167.6835635586834</v>
+        <v>1663.470370056014</v>
       </c>
       <c r="S3">
-        <v>0.3596912082765134</v>
+        <v>0.3480992895708612</v>
       </c>
       <c r="T3">
-        <v>0.3596912082765134</v>
+        <v>0.3480992895708612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H4">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I4">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J4">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N4">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O4">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P4">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q4">
-        <v>41.251701678863</v>
+        <v>42.58483661452043</v>
       </c>
       <c r="R4">
-        <v>41.251701678863</v>
+        <v>383.2635295306839</v>
       </c>
       <c r="S4">
-        <v>0.08848735144598573</v>
+        <v>0.08020206716610133</v>
       </c>
       <c r="T4">
-        <v>0.08848735144598573</v>
+        <v>0.08020206716610133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H5">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I5">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J5">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N5">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O5">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P5">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q5">
-        <v>64.80321083225138</v>
+        <v>76.01807169418821</v>
       </c>
       <c r="R5">
-        <v>64.80321083225138</v>
+        <v>684.1626452476939</v>
       </c>
       <c r="S5">
-        <v>0.1390067381069985</v>
+        <v>0.1431684838207392</v>
       </c>
       <c r="T5">
-        <v>0.1390067381069985</v>
+        <v>0.1431684838207392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H6">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I6">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J6">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89078618421431</v>
+        <v>2.498796666666667</v>
       </c>
       <c r="N6">
-        <v>1.89078618421431</v>
+        <v>7.49639</v>
       </c>
       <c r="O6">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="P6">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="Q6">
-        <v>43.99031999030202</v>
+        <v>58.97718697681555</v>
       </c>
       <c r="R6">
-        <v>43.99031999030202</v>
+        <v>530.7946827913399</v>
       </c>
       <c r="S6">
-        <v>0.09436185046392287</v>
+        <v>0.1110745675508692</v>
       </c>
       <c r="T6">
-        <v>0.09436185046392287</v>
+        <v>0.1110745675508692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H7">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I7">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J7">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N7">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O7">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P7">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q7">
-        <v>10.3908135144277</v>
+        <v>11.843350879932</v>
       </c>
       <c r="R7">
-        <v>10.3908135144277</v>
+        <v>106.590157919388</v>
       </c>
       <c r="S7">
-        <v>0.0222889124530827</v>
+        <v>0.02230515127584478</v>
       </c>
       <c r="T7">
-        <v>0.0222889124530827</v>
+        <v>0.02230515127584477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H8">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I8">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J8">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N8">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O8">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P8">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q8">
-        <v>18.53204613039169</v>
+        <v>20.620709312346</v>
       </c>
       <c r="R8">
-        <v>18.53204613039169</v>
+        <v>185.586383811114</v>
       </c>
       <c r="S8">
-        <v>0.03975234019966345</v>
+        <v>0.03883597178619937</v>
       </c>
       <c r="T8">
-        <v>0.03975234019966345</v>
+        <v>0.03883597178619937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H9">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I9">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J9">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N9">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O9">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P9">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q9">
-        <v>4.559054103131012</v>
+        <v>4.751010883476</v>
       </c>
       <c r="R9">
-        <v>4.559054103131012</v>
+        <v>42.759097951284</v>
       </c>
       <c r="S9">
-        <v>0.009779441968856406</v>
+        <v>0.008947806878599003</v>
       </c>
       <c r="T9">
-        <v>0.009779441968856406</v>
+        <v>0.008947806878599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H10">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I10">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J10">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N10">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O10">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P10">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q10">
-        <v>7.161918956478375</v>
+        <v>8.481016123866</v>
       </c>
       <c r="R10">
-        <v>7.161918956478375</v>
+        <v>76.329145114794</v>
       </c>
       <c r="S10">
-        <v>0.01536274175216126</v>
+        <v>0.01597270481416286</v>
       </c>
       <c r="T10">
-        <v>0.01536274175216126</v>
+        <v>0.01597270481416286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.57126938261837</v>
+        <v>2.633202</v>
       </c>
       <c r="H11">
-        <v>2.57126938261837</v>
+        <v>7.899606</v>
       </c>
       <c r="I11">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J11">
-        <v>0.09761211601674237</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.89078618421431</v>
+        <v>2.498796666666667</v>
       </c>
       <c r="N11">
-        <v>1.89078618421431</v>
+        <v>7.49639</v>
       </c>
       <c r="O11">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="P11">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="Q11">
-        <v>4.861720624548073</v>
+        <v>6.579836380260001</v>
       </c>
       <c r="R11">
-        <v>4.861720624548073</v>
+        <v>59.21852742234</v>
       </c>
       <c r="S11">
-        <v>0.01042867964297855</v>
+        <v>0.01239212173310607</v>
       </c>
       <c r="T11">
-        <v>0.01042867964297855</v>
+        <v>0.01239212173310606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H12">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I12">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J12">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N12">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O12">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P12">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q12">
-        <v>2.039998781268798</v>
+        <v>2.294430850943778</v>
       </c>
       <c r="R12">
-        <v>2.039998781268798</v>
+        <v>20.649877658494</v>
       </c>
       <c r="S12">
-        <v>0.004375918610892323</v>
+        <v>0.004321211770309388</v>
       </c>
       <c r="T12">
-        <v>0.004375918610892323</v>
+        <v>0.004321211770309388</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H13">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I13">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J13">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N13">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O13">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P13">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q13">
-        <v>3.638343760854071</v>
+        <v>3.994882199661889</v>
       </c>
       <c r="R13">
-        <v>3.638343760854071</v>
+        <v>35.953939796957</v>
       </c>
       <c r="S13">
-        <v>0.007804463572298318</v>
+        <v>0.00752375342890707</v>
       </c>
       <c r="T13">
-        <v>0.007804463572298318</v>
+        <v>0.007523753428907069</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H14">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I14">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J14">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N14">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O14">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P14">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q14">
-        <v>0.8950660890229654</v>
+        <v>0.9204207537824444</v>
       </c>
       <c r="R14">
-        <v>0.8950660890229654</v>
+        <v>8.283786784041999</v>
       </c>
       <c r="S14">
-        <v>0.001919969949441903</v>
+        <v>0.001733472592231631</v>
       </c>
       <c r="T14">
-        <v>0.001919969949441903</v>
+        <v>0.001733472592231631</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H15">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I15">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J15">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N15">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O15">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P15">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q15">
-        <v>1.406079121954724</v>
+        <v>1.643040490755222</v>
       </c>
       <c r="R15">
-        <v>1.406079121954724</v>
+        <v>14.787364416797</v>
       </c>
       <c r="S15">
-        <v>0.003016123271564879</v>
+        <v>0.003094417033673488</v>
       </c>
       <c r="T15">
-        <v>0.003016123271564879</v>
+        <v>0.003094417033673487</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.504809984278132</v>
+        <v>0.5101343333333334</v>
       </c>
       <c r="H16">
-        <v>0.504809984278132</v>
+        <v>1.530403</v>
       </c>
       <c r="I16">
-        <v>0.01916390833448524</v>
+        <v>0.01907359990996641</v>
       </c>
       <c r="J16">
-        <v>0.01916390833448524</v>
+        <v>0.0190735999099664</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.89078618421431</v>
+        <v>2.498796666666667</v>
       </c>
       <c r="N16">
-        <v>1.89078618421431</v>
+        <v>7.49639</v>
       </c>
       <c r="O16">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="P16">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="Q16">
-        <v>0.954487743926535</v>
+        <v>1.274721971685556</v>
       </c>
       <c r="R16">
-        <v>0.954487743926535</v>
+        <v>11.47249774517</v>
       </c>
       <c r="S16">
-        <v>0.002047432930287817</v>
+        <v>0.00240074508484483</v>
       </c>
       <c r="T16">
-        <v>0.002047432930287817</v>
+        <v>0.002400745084844829</v>
       </c>
     </row>
   </sheetData>
